--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
+    <sheet name="receivables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>goodsname</t>
   </si>
@@ -44,6 +45,27 @@
   </si>
   <si>
     <t>----暂无数据！----</t>
+  </si>
+  <si>
+    <t>financename</t>
+  </si>
+  <si>
+    <t>financenames</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>editfinancename</t>
+  </si>
+  <si>
+    <t>zhaijun</t>
+  </si>
+  <si>
+    <t>天子笑兮你一坛</t>
+  </si>
+  <si>
+    <t>哈哈哈</t>
   </si>
 </sst>
 </file>
@@ -66,6 +88,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -73,6 +110,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -80,7 +179,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,121 +230,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -218,6 +240,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -230,13 +342,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,157 +402,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,30 +445,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,10 +475,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -488,9 +493,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +516,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,145 +539,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,7 +1009,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1054,4 +1076,85 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="6.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="19.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1314</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
     <sheet name="receivables" sheetId="2" r:id="rId2"/>
+    <sheet name="knowledge" sheetId="3" r:id="rId3"/>
+    <sheet name="systemsettings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>goodsname</t>
   </si>
@@ -66,6 +68,42 @@
   </si>
   <si>
     <t>哈哈哈</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>iframe</t>
+  </si>
+  <si>
+    <t>edittit</t>
+  </si>
+  <si>
+    <t>云深不知处 《虞美人》</t>
+  </si>
+  <si>
+    <t>我想你了</t>
+  </si>
+  <si>
+    <t>云深不知处</t>
+  </si>
+  <si>
+    <t>logoname</t>
+  </si>
+  <si>
+    <t>enterprompt</t>
+  </si>
+  <si>
+    <t>外婆的道歉信</t>
+  </si>
+  <si>
+    <t>张欢的书店</t>
+  </si>
+  <si>
+    <t>客户名称520</t>
+  </si>
+  <si>
+    <t>取消列表显示</t>
   </si>
 </sst>
 </file>
@@ -74,8 +112,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -88,6 +126,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -96,21 +148,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,7 +187,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,21 +225,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,27 +254,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +469,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,51 +511,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,17 +546,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,13 +1119,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
@@ -1153,6 +1191,145 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="4:4">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRMZDH\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD63206B-D410-4631-9CE4-371D7A3FD271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F6513-51D9-4D33-BA36-FFB0943B8A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2798" windowWidth="14400" windowHeight="8437" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2798" windowWidth="14400" windowHeight="8437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clue" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A9F1E9-5083-4F0D-8171-DE8994775A4D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -4,20 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
     <sheet name="receivables" sheetId="2" r:id="rId2"/>
     <sheet name="knowledge" sheetId="3" r:id="rId3"/>
     <sheet name="systemsettings" sheetId="4" r:id="rId4"/>
+    <sheet name="datas" sheetId="5" r:id="rId5"/>
+    <sheet name="business" sheetId="6" r:id="rId6"/>
+    <sheet name="search" sheetId="7" r:id="rId7"/>
+    <sheet name="clue" sheetId="8" r:id="rId8"/>
+    <sheet name="task" sheetId="9" r:id="rId9"/>
+    <sheet name="mail" sheetId="10" r:id="rId10"/>
+    <sheet name="notice" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
   <si>
     <t>goodsname</t>
   </si>
@@ -104,6 +111,273 @@
   </si>
   <si>
     <t>取消列表显示</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>elename</t>
+  </si>
+  <si>
+    <t>sched</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>保安</t>
+  </si>
+  <si>
+    <t>yy1</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>研发</t>
+  </si>
+  <si>
+    <t>yy2</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>yy3</t>
+  </si>
+  <si>
+    <t>讨厌</t>
+  </si>
+  <si>
+    <t>运维</t>
+  </si>
+  <si>
+    <t>yy4</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>运输人员</t>
+  </si>
+  <si>
+    <t>yy5</t>
+  </si>
+  <si>
+    <t>阳光</t>
+  </si>
+  <si>
+    <t>经理</t>
+  </si>
+  <si>
+    <t>yy6</t>
+  </si>
+  <si>
+    <t>下雨了</t>
+  </si>
+  <si>
+    <t>组长</t>
+  </si>
+  <si>
+    <t>yy7</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>部长</t>
+  </si>
+  <si>
+    <t>yy8</t>
+  </si>
+  <si>
+    <t>秘书</t>
+  </si>
+  <si>
+    <t>yy9</t>
+  </si>
+  <si>
+    <t>yy10</t>
+  </si>
+  <si>
+    <t>yy11</t>
+  </si>
+  <si>
+    <t>yy12</t>
+  </si>
+  <si>
+    <t>yy13</t>
+  </si>
+  <si>
+    <t>yy14</t>
+  </si>
+  <si>
+    <t>shopname</t>
+  </si>
+  <si>
+    <t>yujiniprics</t>
+  </si>
+  <si>
+    <t>tgdsw11</t>
+  </si>
+  <si>
+    <t>tgdsw12</t>
+  </si>
+  <si>
+    <t>tgdsw13</t>
+  </si>
+  <si>
+    <t>tgdsw14</t>
+  </si>
+  <si>
+    <t>tgdsw15</t>
+  </si>
+  <si>
+    <t>tgdsw16</t>
+  </si>
+  <si>
+    <t>tgdsw17</t>
+  </si>
+  <si>
+    <t>tgdsw18</t>
+  </si>
+  <si>
+    <t>tgdsw19</t>
+  </si>
+  <si>
+    <t>tgdsw20</t>
+  </si>
+  <si>
+    <t>tgdsw21</t>
+  </si>
+  <si>
+    <t>tgdsw22</t>
+  </si>
+  <si>
+    <t>tgdsw23</t>
+  </si>
+  <si>
+    <t>tgdsw24</t>
+  </si>
+  <si>
+    <t>serach</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>好好</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>gsname</t>
+  </si>
+  <si>
+    <t>contactname</t>
+  </si>
+  <si>
+    <t>contens</t>
+  </si>
+  <si>
+    <t>沁园春</t>
+  </si>
+  <si>
+    <t>nichao</t>
+  </si>
+  <si>
+    <t>金沙江</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>添加客户成功</t>
+  </si>
+  <si>
+    <t>地上霜</t>
+  </si>
+  <si>
+    <t>哈哈哈哈</t>
+  </si>
+  <si>
+    <t>暂无数据</t>
+  </si>
+  <si>
+    <t>ztcontent</t>
+  </si>
+  <si>
+    <t>mscontent</t>
+  </si>
+  <si>
+    <t>考试通知</t>
+  </si>
+  <si>
+    <t>接口自动化考试</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>已成功关闭</t>
+  </si>
+  <si>
+    <t>元旦通知</t>
+  </si>
+  <si>
+    <t>元旦放假安排</t>
+  </si>
+  <si>
+    <t>删除成功</t>
+  </si>
+  <si>
+    <t>nrcontent</t>
+  </si>
+  <si>
+    <t>reeecontent</t>
+  </si>
+  <si>
+    <t>知道了</t>
+  </si>
+  <si>
+    <t>设置已读成功</t>
+  </si>
+  <si>
+    <t>btcontent</t>
+  </si>
+  <si>
+    <t>alcontent</t>
+  </si>
+  <si>
+    <t>sercontent</t>
+  </si>
+  <si>
+    <t>添加公告测试</t>
+  </si>
+  <si>
+    <t>公告测试内容</t>
+  </si>
+  <si>
+    <t>公告添加成功</t>
+  </si>
+  <si>
+    <t>就一句</t>
+  </si>
+  <si>
+    <t>公告保存成功</t>
+  </si>
+  <si>
+    <t>修改成功，已停用</t>
   </si>
 </sst>
 </file>
@@ -111,17 +385,69 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,14 +459,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,7 +490,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -170,70 +505,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +522,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -263,7 +530,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +559,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,22 +753,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +783,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -516,17 +818,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,23 +845,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,141 +870,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1396,150 @@
       </c>
     </row>
     <row r="5" spans="3:3">
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1624,7 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1262,7 +1694,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1334,4 +1766,559 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18723458765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18723458766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18723458767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18723458768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18723458769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18723458770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18723458771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18723458772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18723458773</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18723458774</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18723458775</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18723458776</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18723458777</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18723458778</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="2">
+        <v>18723458779</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2">
+        <v>18723458780</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="10.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRMZDH\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F6513-51D9-4D33-BA36-FFB0943B8A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B55D7-D475-4965-864F-39EBD6327E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="2798" windowWidth="14400" windowHeight="8437" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>gsname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,10 @@
   <si>
     <t>暂无数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花木兰公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -510,7 +514,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -567,7 +571,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>

--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="21000" windowHeight="8675" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t>goodsname</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>雪</t>
+  </si>
+  <si>
+    <t>花木兰的迪士尼</t>
   </si>
   <si>
     <t>添加客户成功</t>
@@ -385,69 +388,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,7 +410,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,22 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -497,15 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -522,7 +448,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,14 +470,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,19 +555,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,163 +723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,36 +746,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -800,20 +766,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,6 +812,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -858,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,133 +866,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1013,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,10 +1420,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1435,33 +1431,33 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1490,16 +1486,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1507,39 +1503,39 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="5:5">
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="4:5">
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1705,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2173,13 +2169,13 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="11.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
@@ -2228,23 +2224,25 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2271,10 +2269,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2282,39 +2280,39 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t>goodsname</t>
   </si>
@@ -125,6 +125,9 @@
     <t>phone</t>
   </si>
   <si>
+    <t>shopname</t>
+  </si>
+  <si>
     <t>保安</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
     <t>你好</t>
   </si>
   <si>
+    <t>商机统计报表</t>
+  </si>
+  <si>
     <t>研发</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
     <t>生日</t>
   </si>
   <si>
+    <t>添加公告</t>
+  </si>
+  <si>
     <t>测试</t>
   </si>
   <si>
@@ -215,9 +224,6 @@
     <t>yy14</t>
   </si>
   <si>
-    <t>shopname</t>
-  </si>
-  <si>
     <t>yujiniprics</t>
   </si>
   <si>
@@ -263,6 +269,45 @@
     <t>tgdsw24</t>
   </si>
   <si>
+    <t>tgdsw25</t>
+  </si>
+  <si>
+    <t>tgdsw26</t>
+  </si>
+  <si>
+    <t>tgdsw27</t>
+  </si>
+  <si>
+    <t>tgdsw28</t>
+  </si>
+  <si>
+    <t>tgdsw29</t>
+  </si>
+  <si>
+    <t>tgdsw30</t>
+  </si>
+  <si>
+    <t>tgdsw31</t>
+  </si>
+  <si>
+    <t>tgdsw32</t>
+  </si>
+  <si>
+    <t>tgdsw33</t>
+  </si>
+  <si>
+    <t>tgdsw34</t>
+  </si>
+  <si>
+    <t>tgdsw35</t>
+  </si>
+  <si>
+    <t>tgdsw36</t>
+  </si>
+  <si>
+    <t>tgdsw37</t>
+  </si>
+  <si>
     <t>serach</t>
   </si>
   <si>
@@ -300,6 +345,9 @@
   </si>
   <si>
     <t>雪</t>
+  </si>
+  <si>
+    <t>花木兰的迪士尼</t>
   </si>
   <si>
     <t>添加客户成功</t>
@@ -385,48 +433,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,8 +454,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,15 +485,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,14 +514,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -505,9 +528,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,10 +560,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,14 +577,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,187 +600,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +791,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -764,21 +838,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,29 +859,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,9 +883,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,10 +899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,133 +911,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1013,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,11 +1382,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="19.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1415,7 +1456,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
@@ -1424,10 +1465,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1435,33 +1476,33 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1476,30 +1517,30 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.225" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1507,39 +1548,39 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="5:5">
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="4:5">
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1557,12 +1598,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="18.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="6.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="22.775" customWidth="1"/>
     <col min="5" max="5" width="19.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
@@ -1643,12 +1684,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="20.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="22.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.5583333333333" customWidth="1"/>
     <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1709,16 +1750,16 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="17.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1771,19 +1812,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="16.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1796,44 +1838,53 @@
       <c r="D1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <v>18723458765</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
         <v>18723458766</v>
       </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2">
         <v>18723458767</v>
@@ -1841,13 +1892,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
         <v>18723458768</v>
@@ -1855,13 +1906,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>18723458769</v>
@@ -1869,13 +1920,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>18723458770</v>
@@ -1883,13 +1934,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>18723458771</v>
@@ -1897,10 +1948,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2">
         <v>18723458772</v>
@@ -1908,10 +1959,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
         <v>18723458773</v>
@@ -1919,7 +1970,7 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2">
         <v>18723458774</v>
@@ -1927,7 +1978,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2">
         <v>18723458775</v>
@@ -1935,7 +1986,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2">
         <v>18723458776</v>
@@ -1943,7 +1994,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2">
         <v>18723458777</v>
@@ -1951,7 +2002,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2">
         <v>18723458778</v>
@@ -1976,28 +2027,28 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="10.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -2005,7 +2056,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>3000</v>
@@ -2013,7 +2064,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>4000</v>
@@ -2021,7 +2072,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>5000</v>
@@ -2029,7 +2080,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>6000</v>
@@ -2037,7 +2088,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>7000</v>
@@ -2045,7 +2096,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>7500</v>
@@ -2053,7 +2104,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1800</v>
@@ -2061,7 +2112,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>2400</v>
@@ -2069,7 +2120,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>5400</v>
@@ -2077,7 +2128,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>600</v>
@@ -2085,7 +2136,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>5000</v>
@@ -2093,7 +2144,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14">
         <v>9000</v>
@@ -2101,10 +2152,114 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -2119,42 +2274,42 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -2174,26 +2329,26 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="11.5583333333333" customWidth="1"/>
     <col min="4" max="4" width="22.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2201,50 +2356,52 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2262,19 +2419,19 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="23.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="16.775" customWidth="1"/>
+    <col min="3" max="3" width="23.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2282,39 +2439,39 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/datas/crm_casedata.xlsx
+++ b/datas/crm_casedata.xlsx
@@ -131,7 +131,7 @@
     <t>保安</t>
   </si>
   <si>
-    <t>yy1</t>
+    <t>yy11</t>
   </si>
   <si>
     <t>你好</t>
@@ -143,7 +143,7 @@
     <t>研发</t>
   </si>
   <si>
-    <t>yy2</t>
+    <t>yy12</t>
   </si>
   <si>
     <t>生日</t>
@@ -155,7 +155,7 @@
     <t>测试</t>
   </si>
   <si>
-    <t>yy3</t>
+    <t>yy13</t>
   </si>
   <si>
     <t>讨厌</t>
@@ -164,7 +164,7 @@
     <t>运维</t>
   </si>
   <si>
-    <t>yy4</t>
+    <t>yy14</t>
   </si>
   <si>
     <t>太阳</t>
@@ -173,7 +173,7 @@
     <t>运输人员</t>
   </si>
   <si>
-    <t>yy5</t>
+    <t>yy15</t>
   </si>
   <si>
     <t>阳光</t>
@@ -182,7 +182,7 @@
     <t>经理</t>
   </si>
   <si>
-    <t>yy6</t>
+    <t>yy16</t>
   </si>
   <si>
     <t>下雨了</t>
@@ -191,7 +191,7 @@
     <t>组长</t>
   </si>
   <si>
-    <t>yy7</t>
+    <t>yy17</t>
   </si>
   <si>
     <t>沟通</t>
@@ -200,112 +200,112 @@
     <t>部长</t>
   </si>
   <si>
-    <t>yy8</t>
+    <t>yy18</t>
   </si>
   <si>
     <t>秘书</t>
   </si>
   <si>
-    <t>yy9</t>
-  </si>
-  <si>
-    <t>yy10</t>
-  </si>
-  <si>
-    <t>yy11</t>
-  </si>
-  <si>
-    <t>yy12</t>
-  </si>
-  <si>
-    <t>yy13</t>
-  </si>
-  <si>
-    <t>yy14</t>
+    <t>yy19</t>
+  </si>
+  <si>
+    <t>yy20</t>
+  </si>
+  <si>
+    <t>yy21</t>
+  </si>
+  <si>
+    <t>yy22</t>
+  </si>
+  <si>
+    <t>yy23</t>
+  </si>
+  <si>
+    <t>yy24</t>
   </si>
   <si>
     <t>yujiniprics</t>
   </si>
   <si>
-    <t>tgdsw11</t>
-  </si>
-  <si>
-    <t>tgdsw12</t>
-  </si>
-  <si>
-    <t>tgdsw13</t>
-  </si>
-  <si>
-    <t>tgdsw14</t>
-  </si>
-  <si>
-    <t>tgdsw15</t>
-  </si>
-  <si>
-    <t>tgdsw16</t>
-  </si>
-  <si>
-    <t>tgdsw17</t>
-  </si>
-  <si>
-    <t>tgdsw18</t>
-  </si>
-  <si>
-    <t>tgdsw19</t>
-  </si>
-  <si>
-    <t>tgdsw20</t>
-  </si>
-  <si>
-    <t>tgdsw21</t>
-  </si>
-  <si>
-    <t>tgdsw22</t>
-  </si>
-  <si>
-    <t>tgdsw23</t>
-  </si>
-  <si>
-    <t>tgdsw24</t>
-  </si>
-  <si>
-    <t>tgdsw25</t>
-  </si>
-  <si>
-    <t>tgdsw26</t>
-  </si>
-  <si>
-    <t>tgdsw27</t>
-  </si>
-  <si>
-    <t>tgdsw28</t>
-  </si>
-  <si>
-    <t>tgdsw29</t>
-  </si>
-  <si>
-    <t>tgdsw30</t>
-  </si>
-  <si>
-    <t>tgdsw31</t>
-  </si>
-  <si>
-    <t>tgdsw32</t>
-  </si>
-  <si>
-    <t>tgdsw33</t>
-  </si>
-  <si>
-    <t>tgdsw34</t>
-  </si>
-  <si>
-    <t>tgdsw35</t>
-  </si>
-  <si>
-    <t>tgdsw36</t>
-  </si>
-  <si>
-    <t>tgdsw37</t>
+    <t>tgdsw101</t>
+  </si>
+  <si>
+    <t>tgdsw102</t>
+  </si>
+  <si>
+    <t>tgdsw103</t>
+  </si>
+  <si>
+    <t>tgdsw104</t>
+  </si>
+  <si>
+    <t>tgdsw105</t>
+  </si>
+  <si>
+    <t>tgdsw106</t>
+  </si>
+  <si>
+    <t>tgdsw107</t>
+  </si>
+  <si>
+    <t>tgdsw108</t>
+  </si>
+  <si>
+    <t>tgdsw109</t>
+  </si>
+  <si>
+    <t>tgdsw110</t>
+  </si>
+  <si>
+    <t>tgdsw111</t>
+  </si>
+  <si>
+    <t>tgdsw112</t>
+  </si>
+  <si>
+    <t>tgdsw113</t>
+  </si>
+  <si>
+    <t>tgdsw114</t>
+  </si>
+  <si>
+    <t>tgdsw115</t>
+  </si>
+  <si>
+    <t>tgdsw116</t>
+  </si>
+  <si>
+    <t>tgdsw117</t>
+  </si>
+  <si>
+    <t>tgdsw118</t>
+  </si>
+  <si>
+    <t>tgdsw119</t>
+  </si>
+  <si>
+    <t>tgdsw120</t>
+  </si>
+  <si>
+    <t>tgdsw121</t>
+  </si>
+  <si>
+    <t>tgdsw122</t>
+  </si>
+  <si>
+    <t>tgdsw123</t>
+  </si>
+  <si>
+    <t>tgdsw124</t>
+  </si>
+  <si>
+    <t>tgdsw125</t>
+  </si>
+  <si>
+    <t>tgdsw126</t>
+  </si>
+  <si>
+    <t>tgdsw127</t>
   </si>
   <si>
     <t>serach</t>
@@ -448,15 +448,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,22 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,6 +496,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,32 +522,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,18 +552,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,8 +575,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,13 +600,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,169 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,21 +791,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -822,7 +807,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,6 +823,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,7 +861,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,10 +899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,133 +911,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1815,7 +1815,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="2">
-        <v>18723458765</v>
+        <v>13209874567</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -1870,7 +1870,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="2">
-        <v>18723458766</v>
+        <v>13209874568</v>
       </c>
       <c r="E3" t="s">
         <v>41</v>
@@ -1887,7 +1887,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="2">
-        <v>18723458767</v>
+        <v>13209874569</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1901,7 +1901,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="2">
-        <v>18723458768</v>
+        <v>13209874570</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1915,7 +1915,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="2">
-        <v>18723458769</v>
+        <v>13209874571</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1929,7 +1929,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="2">
-        <v>18723458770</v>
+        <v>13209874572</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1943,7 +1943,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="2">
-        <v>18723458771</v>
+        <v>13209874573</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1954,7 +1954,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="2">
-        <v>18723458772</v>
+        <v>13209874574</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1965,7 +1965,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="2">
-        <v>18723458773</v>
+        <v>13209874575</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1973,7 +1973,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="2">
-        <v>18723458774</v>
+        <v>13209874576</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1981,7 +1981,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="2">
-        <v>18723458775</v>
+        <v>13209874577</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1989,7 +1989,7 @@
         <v>63</v>
       </c>
       <c r="D13" s="2">
-        <v>18723458776</v>
+        <v>13209874578</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -1997,7 +1997,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="2">
-        <v>18723458777</v>
+        <v>13209874579</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2005,17 +2005,17 @@
         <v>65</v>
       </c>
       <c r="D15" s="2">
-        <v>18723458778</v>
+        <v>13209874580</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" s="2">
-        <v>18723458779</v>
+        <v>13209874581</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="2">
-        <v>18723458780</v>
+        <v>13209874582</v>
       </c>
     </row>
   </sheetData>
@@ -2030,7 +2030,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2051,7 +2051,7 @@
         <v>67</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>68</v>
       </c>
       <c r="B3">
-        <v>3000</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>69</v>
       </c>
       <c r="B4">
-        <v>4000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2083,7 +2083,7 @@
         <v>71</v>
       </c>
       <c r="B6">
-        <v>6000</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>7000</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>73</v>
       </c>
       <c r="B8">
-        <v>7500</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>74</v>
       </c>
       <c r="B9">
-        <v>1800</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2115,7 +2115,7 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>2400</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>76</v>
       </c>
       <c r="B11">
-        <v>5400</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>77</v>
       </c>
       <c r="B12">
-        <v>600</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>78</v>
       </c>
       <c r="B13">
-        <v>5000</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>79</v>
       </c>
       <c r="B14">
-        <v>9000</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>80</v>
       </c>
       <c r="B15">
-        <v>1000</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>81</v>
       </c>
       <c r="B16">
-        <v>1001</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>82</v>
       </c>
       <c r="B17">
-        <v>1002</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>83</v>
       </c>
       <c r="B18">
-        <v>1003</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>84</v>
       </c>
       <c r="B19">
-        <v>1004</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>85</v>
       </c>
       <c r="B20">
-        <v>1005</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>86</v>
       </c>
       <c r="B21">
-        <v>1006</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>87</v>
       </c>
       <c r="B22">
-        <v>1007</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>88</v>
       </c>
       <c r="B23">
-        <v>1008</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>89</v>
       </c>
       <c r="B24">
-        <v>1009</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="B25">
-        <v>1010</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>91</v>
       </c>
       <c r="B26">
-        <v>1011</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>92</v>
       </c>
       <c r="B27">
-        <v>1012</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>93</v>
       </c>
       <c r="B28">
-        <v>1013</v>
+        <v>3026</v>
       </c>
     </row>
   </sheetData>
